--- a/Excel/MonsterConfig.xlsx
+++ b/Excel/MonsterConfig.xlsx
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="25">
   <si>
     <t>Id</t>
   </si>
   <si>
-    <t>怪物的美术资源</t>
+    <t>对应fightitem怪物configId</t>
   </si>
   <si>
     <t>血量</t>
@@ -40,7 +40,7 @@
     <t>购买所需金币</t>
   </si>
   <si>
-    <t>PrefabName</t>
+    <t>MonsterConfigId</t>
   </si>
   <si>
     <t>Hp</t>
@@ -64,52 +64,31 @@
     <t>int</t>
   </si>
   <si>
-    <t>string</t>
-  </si>
-  <si>
     <t>int[]</t>
   </si>
   <si>
-    <t>#系统出怪</t>
-  </si>
-  <si>
-    <t>Monster1</t>
-  </si>
-  <si>
-    <t>20,0</t>
-  </si>
-  <si>
-    <t>Monster2</t>
+    <t>#系统出怪数据 6开头</t>
   </si>
   <si>
     <t>0,0</t>
   </si>
   <si>
-    <t>Monster3</t>
-  </si>
-  <si>
-    <t>Monster4</t>
-  </si>
-  <si>
-    <t>2,0</t>
-  </si>
-  <si>
-    <t>Monster5</t>
-  </si>
-  <si>
-    <t>Monster6</t>
-  </si>
-  <si>
-    <t>Monster7</t>
-  </si>
-  <si>
-    <t>#购买怪</t>
-  </si>
-  <si>
-    <t>Monster8</t>
+    <t>3,0</t>
+  </si>
+  <si>
+    <t>3,1</t>
   </si>
   <si>
     <t>1,1</t>
+  </si>
+  <si>
+    <t>5,5</t>
+  </si>
+  <si>
+    <t>3,3</t>
+  </si>
+  <si>
+    <t>#购买召唤物数据9开头</t>
   </si>
 </sst>
 </file>
@@ -730,17 +709,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1094,14 +1070,16 @@
   <dimension ref="B3:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="23.225" customWidth="1"/>
-    <col min="4" max="4" width="18.225" customWidth="1"/>
-    <col min="8" max="8" width="18.1083333333333" customWidth="1"/>
+    <col min="2" max="2" width="20.25" customWidth="1"/>
+    <col min="3" max="4" width="23.1833333333333" customWidth="1"/>
+    <col min="8" max="8" width="18.0916666666667" customWidth="1"/>
+    <col min="9" max="9" width="15.8166666666667" customWidth="1"/>
+    <col min="10" max="10" width="13.9083333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:10">
@@ -1161,7 +1139,7 @@
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
         <v>15</v>
@@ -1173,7 +1151,7 @@
         <v>15</v>
       </c>
       <c r="H5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I5" t="s">
         <v>15</v>
@@ -1184,27 +1162,27 @@
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="3:10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25" spans="3:10">
       <c r="C7">
-        <v>1001</v>
-      </c>
-      <c r="D7" t="s">
-        <v>19</v>
+        <v>6001</v>
+      </c>
+      <c r="D7">
+        <v>6001</v>
       </c>
       <c r="E7">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="F7">
-        <v>307</v>
+        <v>507</v>
       </c>
       <c r="G7">
         <v>5</v>
       </c>
-      <c r="H7" t="s">
-        <v>20</v>
+      <c r="H7" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="I7">
         <v>3</v>
@@ -1213,76 +1191,76 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="3:10">
+    <row r="8" ht="14.25" spans="3:10">
       <c r="C8">
-        <v>1002</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
+        <v>6002</v>
+      </c>
+      <c r="D8">
+        <v>6002</v>
       </c>
       <c r="E8">
         <v>50</v>
       </c>
       <c r="F8">
-        <v>307</v>
+        <v>507</v>
       </c>
       <c r="G8">
         <v>8</v>
       </c>
-      <c r="H8" t="s">
-        <v>22</v>
+      <c r="H8" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="I8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="3:10">
+    <row r="9" ht="14.25" spans="3:10">
       <c r="C9">
-        <v>1003</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
+        <v>6003</v>
+      </c>
+      <c r="D9">
+        <v>6003</v>
       </c>
       <c r="E9">
         <v>30</v>
       </c>
       <c r="F9">
-        <v>440</v>
+        <v>840</v>
       </c>
       <c r="G9">
         <v>3</v>
       </c>
-      <c r="H9" t="s">
-        <v>22</v>
+      <c r="H9" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="I9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="3:10">
+    <row r="10" ht="14.25" spans="3:10">
       <c r="C10">
-        <v>1004</v>
-      </c>
-      <c r="D10" t="s">
-        <v>24</v>
+        <v>6004</v>
+      </c>
+      <c r="D10">
+        <v>6003</v>
       </c>
       <c r="E10">
         <v>70</v>
       </c>
       <c r="F10">
-        <v>440</v>
+        <v>540</v>
       </c>
       <c r="G10">
         <v>8</v>
       </c>
-      <c r="H10" t="s">
-        <v>25</v>
+      <c r="H10" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="I10">
         <v>6</v>
@@ -1291,12 +1269,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="3:10">
+    <row r="11" ht="14.25" spans="3:10">
       <c r="C11">
-        <v>1005</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
+        <v>6005</v>
+      </c>
+      <c r="D11">
+        <v>6003</v>
       </c>
       <c r="E11">
         <v>120</v>
@@ -1307,33 +1285,33 @@
       <c r="G11">
         <v>15</v>
       </c>
-      <c r="H11" t="s">
-        <v>25</v>
+      <c r="H11" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="I11">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="3:10">
+    <row r="12" ht="14.25" spans="3:10">
       <c r="C12">
-        <v>1006</v>
-      </c>
-      <c r="D12" t="s">
-        <v>27</v>
+        <v>6006</v>
+      </c>
+      <c r="D12">
+        <v>6003</v>
       </c>
       <c r="E12">
         <v>40</v>
       </c>
       <c r="F12">
-        <v>440</v>
+        <v>840</v>
       </c>
       <c r="G12">
         <v>3</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I12">
@@ -1343,27 +1321,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="3:10">
+    <row r="13" ht="14.25" spans="3:10">
       <c r="C13">
-        <v>1007</v>
-      </c>
-      <c r="D13" t="s">
-        <v>28</v>
+        <v>6007</v>
+      </c>
+      <c r="D13">
+        <v>6003</v>
       </c>
       <c r="E13">
         <v>40</v>
       </c>
       <c r="F13">
-        <v>440</v>
+        <v>840</v>
       </c>
       <c r="G13">
         <v>6</v>
       </c>
-      <c r="H13" t="s">
-        <v>22</v>
+      <c r="H13" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="I13">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -1371,27 +1349,27 @@
     </row>
     <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" ht="14.25" spans="3:10">
-      <c r="C15" s="1">
-        <v>4001</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" s="1">
+      <c r="C15">
+        <v>9001</v>
+      </c>
+      <c r="D15">
+        <v>9001</v>
+      </c>
+      <c r="E15">
         <v>25</v>
       </c>
-      <c r="F15" s="1">
-        <v>307</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>22</v>
+      <c r="F15">
+        <v>507</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="I15">
         <v>3</v>
@@ -1401,23 +1379,23 @@
       </c>
     </row>
     <row r="16" ht="14.25" spans="3:10">
-      <c r="C16" s="1">
-        <v>4002</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" s="1">
+      <c r="C16">
+        <v>9002</v>
+      </c>
+      <c r="D16">
+        <v>9002</v>
+      </c>
+      <c r="E16">
         <v>50</v>
       </c>
-      <c r="F16" s="1">
-        <v>307</v>
-      </c>
-      <c r="G16" s="3">
-        <v>0</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>22</v>
+      <c r="F16">
+        <v>507</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="I16">
         <v>4</v>
@@ -1427,23 +1405,23 @@
       </c>
     </row>
     <row r="17" ht="14.25" spans="3:10">
-      <c r="C17" s="1">
-        <v>4003</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="1">
+      <c r="C17">
+        <v>9003</v>
+      </c>
+      <c r="D17">
+        <v>9003</v>
+      </c>
+      <c r="E17">
         <v>30</v>
       </c>
-      <c r="F17" s="1">
-        <v>440</v>
-      </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>22</v>
+      <c r="F17">
+        <v>840</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="I17">
         <v>5</v>
@@ -1453,23 +1431,23 @@
       </c>
     </row>
     <row r="18" ht="14.25" spans="3:10">
-      <c r="C18" s="1">
-        <v>4004</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="1">
+      <c r="C18">
+        <v>9004</v>
+      </c>
+      <c r="D18">
+        <v>9004</v>
+      </c>
+      <c r="E18">
         <v>70</v>
       </c>
-      <c r="F18" s="1">
-        <v>440</v>
-      </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>25</v>
+      <c r="F18">
+        <v>540</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="I18">
         <v>6</v>
@@ -1479,23 +1457,23 @@
       </c>
     </row>
     <row r="19" ht="14.25" spans="3:10">
-      <c r="C19" s="1">
-        <v>4005</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" s="1">
+      <c r="C19">
+        <v>9005</v>
+      </c>
+      <c r="D19">
+        <v>9005</v>
+      </c>
+      <c r="E19">
         <v>120</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19">
         <v>440</v>
       </c>
-      <c r="G19" s="3">
-        <v>0</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>25</v>
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="I19">
         <v>7</v>
@@ -1505,22 +1483,22 @@
       </c>
     </row>
     <row r="20" ht="14.25" spans="3:10">
-      <c r="C20" s="1">
-        <v>4006</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E20" s="1">
+      <c r="C20">
+        <v>9006</v>
+      </c>
+      <c r="D20">
+        <v>9006</v>
+      </c>
+      <c r="E20">
         <v>40</v>
       </c>
-      <c r="F20" s="1">
-        <v>440</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3" t="s">
+      <c r="F20">
+        <v>840</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I20">
@@ -1531,23 +1509,23 @@
       </c>
     </row>
     <row r="21" ht="14.25" spans="3:10">
-      <c r="C21" s="1">
-        <v>4007</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E21" s="1">
+      <c r="C21">
+        <v>9007</v>
+      </c>
+      <c r="D21">
+        <v>9007</v>
+      </c>
+      <c r="E21">
         <v>40</v>
       </c>
-      <c r="F21" s="1">
-        <v>440</v>
-      </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>22</v>
+      <c r="F21">
+        <v>840</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="I21">
         <v>7</v>
@@ -1558,22 +1536,22 @@
     </row>
     <row r="22" spans="3:10">
       <c r="C22">
-        <v>4008</v>
-      </c>
-      <c r="D22" t="s">
-        <v>30</v>
+        <v>9008</v>
+      </c>
+      <c r="D22">
+        <v>9008</v>
       </c>
       <c r="E22">
         <v>200</v>
       </c>
       <c r="F22">
-        <v>170</v>
+        <v>670</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
-      <c r="H22" t="s">
-        <v>31</v>
+      <c r="H22" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="I22">
         <v>15</v>

--- a/Excel/MonsterConfig.xlsx
+++ b/Excel/MonsterConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
   <si>
     <t>Id</t>
   </si>
@@ -40,6 +40,9 @@
     <t>购买所需金币</t>
   </si>
   <si>
+    <t>对怪造成的伤害</t>
+  </si>
+  <si>
     <t>MonsterConfigId</t>
   </si>
   <si>
@@ -59,6 +62,9 @@
   </si>
   <si>
     <t>NeedMoney</t>
+  </si>
+  <si>
+    <t>AttackToMonster</t>
   </si>
   <si>
     <t>int</t>
@@ -1067,10 +1073,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B3:J22"/>
+  <dimension ref="B3:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1082,7 +1088,7 @@
     <col min="10" max="10" width="13.9083333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:10">
+    <row r="3" spans="3:11">
       <c r="C3" t="s">
         <v>0</v>
       </c>
@@ -1107,62 +1113,71 @@
       <c r="J3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="3:10">
+      <c r="K3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="3:11">
       <c r="C4" t="s">
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="3:10">
+        <v>15</v>
+      </c>
+      <c r="K4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="3:11">
       <c r="C5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J5" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="K5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" ht="14.25" spans="3:10">
@@ -1182,7 +1197,7 @@
         <v>5</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I7">
         <v>3</v>
@@ -1208,7 +1223,7 @@
         <v>8</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I8">
         <v>4</v>
@@ -1234,7 +1249,7 @@
         <v>3</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I9">
         <v>5</v>
@@ -1248,7 +1263,7 @@
         <v>6004</v>
       </c>
       <c r="D10">
-        <v>6003</v>
+        <v>6004</v>
       </c>
       <c r="E10">
         <v>70</v>
@@ -1260,7 +1275,7 @@
         <v>8</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I10">
         <v>6</v>
@@ -1286,7 +1301,7 @@
         <v>15</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I11">
         <v>7</v>
@@ -1312,7 +1327,7 @@
         <v>3</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I12">
         <v>8</v>
@@ -1338,7 +1353,7 @@
         <v>6</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I13">
         <v>7</v>
@@ -1349,10 +1364,10 @@
     </row>
     <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" ht="14.25" spans="3:10">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25" spans="3:11">
       <c r="C15">
         <v>9001</v>
       </c>
@@ -1369,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I15">
         <v>3</v>
@@ -1377,8 +1392,11 @@
       <c r="J15">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" ht="14.25" spans="3:10">
+      <c r="K15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25" spans="3:11">
       <c r="C16">
         <v>9002</v>
       </c>
@@ -1395,7 +1413,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I16">
         <v>4</v>
@@ -1403,8 +1421,11 @@
       <c r="J16">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" ht="14.25" spans="3:10">
+      <c r="K16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" ht="14.25" spans="3:11">
       <c r="C17">
         <v>9003</v>
       </c>
@@ -1421,7 +1442,7 @@
         <v>0</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I17">
         <v>5</v>
@@ -1429,8 +1450,11 @@
       <c r="J17">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" ht="14.25" spans="3:10">
+      <c r="K17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" ht="14.25" spans="3:11">
       <c r="C18">
         <v>9004</v>
       </c>
@@ -1447,7 +1471,7 @@
         <v>0</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I18">
         <v>6</v>
@@ -1455,8 +1479,11 @@
       <c r="J18">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" ht="14.25" spans="3:10">
+      <c r="K18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" ht="14.25" spans="3:11">
       <c r="C19">
         <v>9005</v>
       </c>
@@ -1473,7 +1500,7 @@
         <v>0</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I19">
         <v>7</v>
@@ -1481,8 +1508,11 @@
       <c r="J19">
         <v>15</v>
       </c>
-    </row>
-    <row r="20" ht="14.25" spans="3:10">
+      <c r="K19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" ht="14.25" spans="3:11">
       <c r="C20">
         <v>9006</v>
       </c>
@@ -1499,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I20">
         <v>8</v>
@@ -1507,8 +1537,11 @@
       <c r="J20">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" ht="14.25" spans="3:10">
+      <c r="K20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" ht="14.25" spans="3:11">
       <c r="C21">
         <v>9007</v>
       </c>
@@ -1525,7 +1558,7 @@
         <v>0</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I21">
         <v>7</v>
@@ -1533,8 +1566,11 @@
       <c r="J21">
         <v>6</v>
       </c>
-    </row>
-    <row r="22" spans="3:10">
+      <c r="K21">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="3:11">
       <c r="C22">
         <v>9008</v>
       </c>
@@ -1551,13 +1587,16 @@
         <v>0</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I22">
         <v>15</v>
       </c>
       <c r="J22">
         <v>50</v>
+      </c>
+      <c r="K22">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
